--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_TRIPHAMMER_20250307.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_TRIPHAMMER_20250307.xlsx
@@ -532,12 +532,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>150BB4224N</t>
+          <t>100CRAY4PKBX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bag Paper - Baguette</t>
+          <t>Crayons - 4 pack</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,24 +547,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>115.37</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>115.37</t>
+          <t>15.49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>100CRAY4PKBX</t>
+          <t>500CT2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crayons - 4 pack</t>
+          <t>Parfait Insert - 2oz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>40.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>40.49</t>
         </is>
       </c>
     </row>
